--- a/Tugas/Tanggal 25/6.1 HIRAC.xlsx
+++ b/Tugas/Tanggal 25/6.1 HIRAC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLP Lab El\Magang\Tugas\Tanggal 25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DWI KURNIAWAN\Magang-Undip\Tugas\Tanggal 25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36" yWindow="576" windowWidth="10776" windowHeight="5412" activeTab="1"/>
+    <workbookView xWindow="30" yWindow="570" windowWidth="10770" windowHeight="5415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="K3" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bahaya K3'!$A$6:$AA$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bahaya K3'!$A$6:$AA$14</definedName>
     <definedName name="Aspek_Lingkungan" localSheetId="0">[1]Sheet1!$E$4:$E$66</definedName>
     <definedName name="Aspek_Lingkungan">[2]Sheet1!$E$4:$E$66</definedName>
     <definedName name="Dampak_Lingkungan" localSheetId="0">[1]Sheet1!$G$4:$G$57</definedName>
@@ -38,12 +38,12 @@
     <definedName name="Operation_Condition">[6]Sheet1!$D$4:$D$11</definedName>
     <definedName name="Peraturan_Persyaratan" localSheetId="0">#N/A</definedName>
     <definedName name="Peraturan_Persyaratan">[6]Sheet1!$I$4:$I$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Bahaya K3'!$A$1:$AA$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Bahaya K3'!$A$1:$AA$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'K3'!$A$1:$I$25</definedName>
     <definedName name="Resiko">#REF!</definedName>
     <definedName name="Sumber_Bahaya">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
   <si>
     <t xml:space="preserve">No.dok  </t>
   </si>
@@ -360,27 +360,15 @@
     <t>Continue</t>
   </si>
   <si>
-    <t>Kerugian Property</t>
-  </si>
-  <si>
     <t>SUB PROCESS</t>
   </si>
   <si>
     <t>Ambil Nilai Tertinggi</t>
   </si>
   <si>
-    <t>El: NA, Sb: NA, Eng:NA, ADM: Pemeriksaan alat, APD: Full Body Harness</t>
-  </si>
-  <si>
     <t>EL:NA, SB:NA; ENG: NA, ADM: Training</t>
   </si>
   <si>
-    <t>El: NA, Sb: NA, Eng: Beli scaffolding baru</t>
-  </si>
-  <si>
-    <t>El: NA, Sb: NA; ADM: Leaflet "AWAS KEPALA TERBENTUR"</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -460,12 +448,66 @@
   </si>
   <si>
     <t>Terkena mata bor</t>
+  </si>
+  <si>
+    <t>El: NA, Sb: NA; ADM: Leaflet "Wajib Gunakan APD"</t>
+  </si>
+  <si>
+    <t>Praktikum Mesin Listrik</t>
+  </si>
+  <si>
+    <t>El: NA, Sb: NA; En:"Pemasangan MCB";ADM: Leaflet "Wajib Gunakan APD"</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Penggunaan Motor Listrik</t>
+  </si>
+  <si>
+    <t>Terkena rotor</t>
+  </si>
+  <si>
+    <t>Belum ada</t>
+  </si>
+  <si>
+    <t>Pengangkatan / Pemindahan</t>
+  </si>
+  <si>
+    <t>Penggunaan AKI 200Ah(Accumulator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El: NA, Sb: NA;En:"Troli" ADM:NA; </t>
+  </si>
+  <si>
+    <t>El: NA, Sb: NA; ADM: Leaflet "Wajib Gunakan APD"; "Penggunaan Sarung Tangan"</t>
+  </si>
+  <si>
+    <t>Cidera anggota tubuh/ Non ergonomic</t>
+  </si>
+  <si>
+    <t>Korsleting Listrik</t>
+  </si>
+  <si>
+    <t>- APAR</t>
+  </si>
+  <si>
+    <t>Kerugian/Kebakaran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -688,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1020,36 +1062,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1074,36 +1088,6 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1135,21 +1119,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="hair">
-        <color indexed="63"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1284,43 +1253,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1390,6 +1322,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1403,7 +1348,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1531,77 +1476,32 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1609,19 +1509,64 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1630,248 +1575,284 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1882,7 +1863,112 @@
     <cellStyle name="Normal_Identifikasi Aspek dan Dampak Lingkungan" xfId="4"/>
     <cellStyle name="Normal_Identifikasi Aspek dan Dampak Lingkungan 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1970,16 +2056,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:rowOff>48986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>972656</xdr:colOff>
+      <xdr:colOff>1027084</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145217</xdr:rowOff>
+      <xdr:rowOff>172431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2002,8 +2088,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="380999" y="21772"/>
-          <a:ext cx="994428" cy="1005188"/>
+          <a:off x="435427" y="48986"/>
+          <a:ext cx="986264" cy="994302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3551,83 +3637,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G4"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="14" customWidth="1"/>
-    <col min="6" max="9" width="14.33203125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="14" customWidth="1"/>
+    <col min="6" max="9" width="14.28515625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122" t="s">
+      <c r="C1" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="136" t="s">
-        <v>87</v>
+      <c r="I1" s="61" t="s">
+        <v>83</v>
       </c>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="122" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="137">
+      <c r="I2" s="62">
         <v>44489</v>
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="13.2" customHeight="1">
+    <row r="3" spans="1:10" ht="13.15" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="137">
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="62">
         <v>44495</v>
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="13.2" customHeight="1">
+    <row r="4" spans="1:10" ht="13.15" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="122" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="136">
+      <c r="I4" s="61">
         <v>0</v>
       </c>
       <c r="J4" s="4"/>
@@ -3635,32 +3721,32 @@
     <row r="5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="122" t="s">
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="135">
+      <c r="I5" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.8" thickBot="1">
+    <row r="6" spans="1:10" ht="13.5" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="132"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="8"/>
@@ -3698,7 +3784,7 @@
       <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="78" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="18">
@@ -3707,7 +3793,7 @@
       <c r="F9" s="19">
         <v>4</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="54">
         <v>8</v>
       </c>
       <c r="H9" s="20">
@@ -3727,7 +3813,7 @@
       <c r="C10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="86"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
@@ -3754,7 +3840,7 @@
       <c r="C11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="24">
         <v>2</v>
       </c>
@@ -3767,7 +3853,7 @@
       <c r="H11" s="19">
         <v>6</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="54">
         <v>8</v>
       </c>
     </row>
@@ -3781,7 +3867,7 @@
       <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="87"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="24">
         <v>1</v>
       </c>
@@ -3876,16 +3962,16 @@
         <v>61</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1"/>
@@ -3906,34 +3992,34 @@
         <v>36</v>
       </c>
       <c r="B21" s="36"/>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89" t="s">
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="89"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:9" ht="41.25" customHeight="1">
       <c r="A22" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="133" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="91" t="s">
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="91"/>
+      <c r="H22" s="70"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1">
       <c r="A23" s="39" t="s">
@@ -3942,16 +4028,16 @@
       <c r="B23" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="91" t="s">
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="91"/>
+      <c r="H23" s="70"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1">
       <c r="A24" s="41" t="s">
@@ -3960,19 +4046,25 @@
       <c r="B24" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134" t="s">
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="90"/>
+      <c r="H24" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C1:G4"/>
+    <mergeCell ref="C5:G6"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C24:F24"/>
@@ -3981,12 +4073,6 @@
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C1:G4"/>
-    <mergeCell ref="C5:G6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.32" right="0.28000000000000003" top="0.51" bottom="0.56000000000000005" header="0.5" footer="0.5"/>
@@ -3998,669 +4084,1240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA64457"/>
+  <dimension ref="A1:AB64458"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="60" customWidth="1"/>
-    <col min="2" max="2" width="22" style="58" customWidth="1"/>
-    <col min="3" max="3" width="31" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25" style="46" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="4.109375" style="46" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="67" customWidth="1"/>
-    <col min="11" max="13" width="4.33203125" style="60" customWidth="1"/>
-    <col min="14" max="14" width="5" style="60" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="68" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" style="61" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" style="58" customWidth="1"/>
-    <col min="18" max="20" width="4.44140625" style="60" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" style="60" customWidth="1"/>
-    <col min="22" max="24" width="5.88671875" style="60" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" style="60" customWidth="1"/>
-    <col min="26" max="26" width="8.5546875" style="60" customWidth="1"/>
-    <col min="27" max="27" width="8.5546875" style="61" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="46"/>
+    <col min="1" max="1" width="5.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="25" style="43" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="43" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="49" customWidth="1"/>
+    <col min="12" max="13" width="4.28515625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="53" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="50" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="48" customWidth="1"/>
+    <col min="18" max="20" width="4.42578125" style="49" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="49" customWidth="1"/>
+    <col min="22" max="24" width="5.85546875" style="49" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" style="49" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="49" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" style="50" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="144"/>
-      <c r="B1" s="144"/>
-      <c r="C1" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="141" t="s">
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
     </row>
     <row r="2" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="143" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
     </row>
     <row r="3" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="145" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="141" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="142" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
     </row>
     <row r="4" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="144"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="149" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="141" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="141"/>
-      <c r="X4" s="141"/>
-      <c r="Y4" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
     </row>
     <row r="5" spans="1:27" ht="51" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="140"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="63"/>
     </row>
     <row r="6" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="113" t="s">
+      <c r="C6" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="109" t="s">
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="95" t="s">
+      <c r="R6" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="97"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="120"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A7" s="119"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="104" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="92" t="s">
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="102" t="s">
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="93" t="s">
+      <c r="P7" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="104" t="s">
+      <c r="Q7" s="107"/>
+      <c r="R7" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="92" t="s">
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="102" t="s">
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" s="106" t="s">
+      <c r="AA7" s="126" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1">
-      <c r="A8" s="119"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="51" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="117" t="s">
+      <c r="J8" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="52" t="s">
+      <c r="M8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="92" t="s">
+      <c r="N8" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="103"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="51" t="s">
+      <c r="O8" s="111"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="51" t="s">
+      <c r="T8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="104" t="s">
+      <c r="U8" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="52" t="s">
+      <c r="V8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="52" t="s">
+      <c r="W8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="52" t="s">
+      <c r="X8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="92" t="s">
+      <c r="Y8" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="107"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="127"/>
     </row>
-    <row r="9" spans="1:27" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="108" t="s">
+    <row r="9" spans="1:27" ht="33" customHeight="1">
+      <c r="A9" s="115"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="62" t="s">
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="108" t="s">
+      <c r="R9" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="105"/>
-      <c r="V9" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="107"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="134"/>
     </row>
     <row r="10" spans="1:27" ht="51" customHeight="1">
-      <c r="A10" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="152" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="153" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="154" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="44" t="s">
+      <c r="A10" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="64">
+      <c r="F10" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="139">
         <v>4</v>
       </c>
-      <c r="H10" s="64">
-        <v>1</v>
-      </c>
-      <c r="I10" s="64">
+      <c r="H10" s="139">
+        <v>1</v>
+      </c>
+      <c r="I10" s="139">
+        <v>1</v>
+      </c>
+      <c r="J10" s="140">
+        <f t="shared" ref="J10:J13" si="0">IF(COUNTA(G10:I10)&gt;0,AVERAGE(G10:I10),"0")</f>
         <v>2</v>
       </c>
-      <c r="J10" s="66">
-        <f t="shared" ref="J10:J12" si="0">IF(COUNTA(G10:I10)&gt;0,AVERAGE(G10:I10),"0")</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="K10" s="64">
+      <c r="K10" s="139">
         <v>2</v>
       </c>
-      <c r="L10" s="64">
-        <v>1</v>
-      </c>
-      <c r="M10" s="64">
-        <v>1</v>
-      </c>
-      <c r="N10" s="54">
-        <f t="shared" ref="N10:N12" si="1">IF(COUNTA(K10:M10)&gt;0,MAX(K10:M10),"0")</f>
+      <c r="L10" s="139">
+        <v>1</v>
+      </c>
+      <c r="M10" s="139">
+        <v>1</v>
+      </c>
+      <c r="N10" s="141">
+        <f t="shared" ref="N10:N13" si="1">IF(COUNTA(K10:M10)&gt;0,MAX(K10:M10),"0")</f>
         <v>2</v>
       </c>
-      <c r="O10" s="56">
-        <f t="shared" ref="O10:O12" si="2">J10*N10</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="P10" s="55" t="str">
-        <f t="shared" ref="P10:P12" si="3">IF(O10&lt;3,"L",IF(AND(O10&gt;2,O10&lt;8),"M","H"))</f>
+      <c r="O10" s="142">
+        <f>J10*N10</f>
+        <v>4</v>
+      </c>
+      <c r="P10" s="143" t="str">
+        <f t="shared" ref="P10:P13" si="2">IF(O10&lt;3,"L",IF(AND(O10&gt;2,O10&lt;8),"M","H"))</f>
         <v>M</v>
       </c>
-      <c r="Q10" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10" s="45">
+      <c r="Q10" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="R10" s="145">
         <v>4</v>
       </c>
-      <c r="S10" s="45">
-        <v>1</v>
-      </c>
-      <c r="T10" s="45">
-        <v>1</v>
-      </c>
-      <c r="U10" s="59">
+      <c r="S10" s="145">
+        <v>1</v>
+      </c>
+      <c r="T10" s="145">
+        <v>1</v>
+      </c>
+      <c r="U10" s="146">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V10" s="45">
-        <v>1</v>
-      </c>
-      <c r="W10" s="45">
-        <v>1</v>
-      </c>
-      <c r="X10" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="54">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="56">
-        <f t="shared" ref="Z10:Z12" si="4">U10*Y10</f>
+      <c r="V10" s="145">
+        <v>1</v>
+      </c>
+      <c r="W10" s="145">
+        <v>1</v>
+      </c>
+      <c r="X10" s="145">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="142">
+        <f t="shared" ref="Z10:Z13" si="3">U10*Y10</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AA10" s="57" t="str">
-        <f t="shared" ref="AA10:AA12" si="5">IF(Z10&lt;3,"L",IF(AND(Z10&gt;2,Z10&lt;8),"M","H"))</f>
+      <c r="AA10" s="143" t="str">
+        <f t="shared" ref="AA10:AA13" si="4">IF(Z10&lt;3,"L",IF(AND(Z10&gt;2,Z10&lt;8),"M","H"))</f>
         <v>L</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="51" customHeight="1">
-      <c r="A11" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="152" t="s">
+      <c r="A11" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="147" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="139">
+        <v>4</v>
+      </c>
+      <c r="H11" s="139">
+        <v>1</v>
+      </c>
+      <c r="I11" s="139">
+        <v>2</v>
+      </c>
+      <c r="J11" s="140">
+        <f t="shared" ref="J11" si="5">IF(COUNTA(G11:I11)&gt;0,AVERAGE(G11:I11),"0")</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="K11" s="139">
+        <v>2</v>
+      </c>
+      <c r="L11" s="139">
+        <v>2</v>
+      </c>
+      <c r="M11" s="139">
+        <v>3</v>
+      </c>
+      <c r="N11" s="141">
+        <f t="shared" ref="N11" si="6">IF(COUNTA(K11:M11)&gt;0,MAX(K11:M11),"0")</f>
+        <v>3</v>
+      </c>
+      <c r="O11" s="142">
+        <f t="shared" ref="O11" si="7">J11*N11</f>
+        <v>7</v>
+      </c>
+      <c r="P11" s="143" t="str">
+        <f t="shared" ref="P11" si="8">IF(O11&lt;3,"L",IF(AND(O11&gt;2,O11&lt;8),"M","H"))</f>
+        <v>M</v>
+      </c>
+      <c r="Q11" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" s="145">
+        <v>4</v>
+      </c>
+      <c r="S11" s="145">
+        <v>1</v>
+      </c>
+      <c r="T11" s="145">
+        <v>1</v>
+      </c>
+      <c r="U11" s="146">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="V11" s="145">
+        <v>1</v>
+      </c>
+      <c r="W11" s="145">
+        <v>1</v>
+      </c>
+      <c r="X11" s="145">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="142">
+        <f t="shared" ref="Z11" si="9">U11*Y11</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AA11" s="143" t="str">
+        <f t="shared" ref="AA11" si="10">IF(Z11&lt;3,"L",IF(AND(Z11&gt;2,Z11&lt;8),"M","H"))</f>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="51" customHeight="1">
+      <c r="A12" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="153" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="156" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="44" t="s">
+      <c r="E12" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64">
+      <c r="F12" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="139">
         <v>4</v>
       </c>
-      <c r="H11" s="64">
-        <v>1</v>
-      </c>
-      <c r="I11" s="64">
+      <c r="H12" s="139">
+        <v>1</v>
+      </c>
+      <c r="I12" s="139">
+        <v>1</v>
+      </c>
+      <c r="J12" s="140">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J11" s="66">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="K11" s="64">
+      <c r="K12" s="139">
         <v>2</v>
       </c>
-      <c r="L11" s="64">
-        <v>1</v>
-      </c>
-      <c r="M11" s="64">
-        <v>1</v>
-      </c>
-      <c r="N11" s="54">
+      <c r="L12" s="139">
+        <v>1</v>
+      </c>
+      <c r="M12" s="139">
+        <v>1</v>
+      </c>
+      <c r="N12" s="141">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O12" s="142">
+        <f t="shared" ref="O10:O13" si="11">J12*N12</f>
+        <v>4</v>
+      </c>
+      <c r="P12" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="P11" s="55" t="str">
+        <v>M</v>
+      </c>
+      <c r="Q12" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="145">
+        <v>4</v>
+      </c>
+      <c r="S12" s="145">
+        <v>1</v>
+      </c>
+      <c r="T12" s="145">
+        <v>2</v>
+      </c>
+      <c r="U12" s="146">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="V12" s="145">
+        <v>1</v>
+      </c>
+      <c r="W12" s="145">
+        <v>1</v>
+      </c>
+      <c r="X12" s="145">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="142">
         <f t="shared" si="3"/>
-        <v>M</v>
-      </c>
-      <c r="Q11" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="45">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AA12" s="143" t="str">
+        <f t="shared" si="4"/>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="65.099999999999994" customHeight="1">
+      <c r="A13" s="135" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="137" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="139">
         <v>4</v>
       </c>
-      <c r="S11" s="45">
-        <v>1</v>
-      </c>
-      <c r="T11" s="45">
+      <c r="H13" s="139">
+        <v>4</v>
+      </c>
+      <c r="I13" s="139">
+        <v>1</v>
+      </c>
+      <c r="J13" s="140">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="139">
         <v>2</v>
       </c>
-      <c r="U11" s="59">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="V11" s="45">
-        <v>1</v>
-      </c>
-      <c r="W11" s="45">
-        <v>1</v>
-      </c>
-      <c r="X11" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="54">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="56">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AA11" s="57" t="str">
-        <f t="shared" si="5"/>
-        <v>L</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="65.099999999999994" customHeight="1">
-      <c r="A12" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="152" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="153" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="154" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64">
-        <v>4</v>
-      </c>
-      <c r="H12" s="64">
-        <v>1</v>
-      </c>
-      <c r="I12" s="64">
+      <c r="L13" s="139">
+        <v>1</v>
+      </c>
+      <c r="M13" s="139">
         <v>2</v>
       </c>
-      <c r="J12" s="66">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="K12" s="64">
-        <v>1</v>
-      </c>
-      <c r="L12" s="64">
-        <v>1</v>
-      </c>
-      <c r="M12" s="64">
-        <v>2</v>
-      </c>
-      <c r="N12" s="54">
+      <c r="N13" s="141">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O13" s="142">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="P13" s="143" t="str">
         <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="P12" s="55" t="str">
+        <v>M</v>
+      </c>
+      <c r="Q13" s="144" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" s="145">
+        <v>4</v>
+      </c>
+      <c r="S13" s="145">
+        <v>1</v>
+      </c>
+      <c r="T13" s="145">
+        <v>2</v>
+      </c>
+      <c r="U13" s="146">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="V13" s="145">
+        <v>1</v>
+      </c>
+      <c r="W13" s="145">
+        <v>1</v>
+      </c>
+      <c r="X13" s="145">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="142">
         <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AA13" s="143" t="str">
+        <f t="shared" si="4"/>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="38.25">
+      <c r="A14" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="139">
+        <v>4</v>
+      </c>
+      <c r="H14" s="139">
+        <v>4</v>
+      </c>
+      <c r="I14" s="139">
+        <v>1</v>
+      </c>
+      <c r="J14" s="140">
+        <f t="shared" ref="J14" si="12">IF(COUNTA(G14:I14)&gt;0,AVERAGE(G14:I14),"0")</f>
+        <v>3</v>
+      </c>
+      <c r="K14" s="139">
+        <v>2</v>
+      </c>
+      <c r="L14" s="139">
+        <v>1</v>
+      </c>
+      <c r="M14" s="139">
+        <v>2</v>
+      </c>
+      <c r="N14" s="141">
+        <f t="shared" ref="N14" si="13">IF(COUNTA(K14:M14)&gt;0,MAX(K14:M14),"0")</f>
+        <v>2</v>
+      </c>
+      <c r="O14" s="142">
+        <f t="shared" ref="O14" si="14">J14*N14</f>
+        <v>6</v>
+      </c>
+      <c r="P14" s="143" t="str">
+        <f t="shared" ref="P14" si="15">IF(O14&lt;3,"L",IF(AND(O14&gt;2,O14&lt;8),"M","H"))</f>
         <v>M</v>
       </c>
-      <c r="Q12" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" s="45">
+      <c r="Q14" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="145">
         <v>4</v>
       </c>
-      <c r="S12" s="45">
-        <v>1</v>
-      </c>
-      <c r="T12" s="45">
+      <c r="S14" s="145">
+        <v>1</v>
+      </c>
+      <c r="T14" s="145">
         <v>2</v>
       </c>
-      <c r="U12" s="59">
+      <c r="U14" s="146">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V12" s="45">
-        <v>1</v>
-      </c>
-      <c r="W12" s="45">
-        <v>1</v>
-      </c>
-      <c r="X12" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="54">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="56">
-        <f t="shared" si="4"/>
+      <c r="V14" s="145">
+        <v>1</v>
+      </c>
+      <c r="W14" s="145">
+        <v>1</v>
+      </c>
+      <c r="X14" s="145">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="142">
+        <f t="shared" ref="Z14" si="16">U14*Y14</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AA12" s="57" t="str">
-        <f t="shared" si="5"/>
+      <c r="AA14" s="143" t="str">
+        <f t="shared" ref="AA14" si="17">IF(Z14&lt;3,"L",IF(AND(Z14&gt;2,Z14&lt;8),"M","H"))</f>
         <v>L</v>
       </c>
     </row>
-    <row r="64457" spans="17:17" ht="39.6">
-      <c r="Q64457" s="65" t="s">
-        <v>80</v>
+    <row r="15" spans="1:27" ht="51">
+      <c r="A15" s="135" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="149" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="149" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="139">
+        <v>3</v>
+      </c>
+      <c r="H15" s="139">
+        <v>4</v>
+      </c>
+      <c r="I15" s="139">
+        <v>1</v>
+      </c>
+      <c r="J15" s="140">
+        <f t="shared" ref="J15" si="18">IF(COUNTA(G15:I15)&gt;0,AVERAGE(G15:I15),"0")</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="K15" s="139">
+        <v>2</v>
+      </c>
+      <c r="L15" s="139">
+        <v>1</v>
+      </c>
+      <c r="M15" s="139">
+        <v>2</v>
+      </c>
+      <c r="N15" s="141">
+        <f t="shared" ref="N15" si="19">IF(COUNTA(K15:M15)&gt;0,MAX(K15:M15),"0")</f>
+        <v>2</v>
+      </c>
+      <c r="O15" s="142">
+        <f t="shared" ref="O15" si="20">J15*N15</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="P15" s="143" t="str">
+        <f t="shared" ref="P15" si="21">IF(O15&lt;3,"L",IF(AND(O15&gt;2,O15&lt;8),"M","H"))</f>
+        <v>M</v>
+      </c>
+      <c r="Q15" s="144" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="145">
+        <v>4</v>
+      </c>
+      <c r="S15" s="145">
+        <v>1</v>
+      </c>
+      <c r="T15" s="145">
+        <v>2</v>
+      </c>
+      <c r="U15" s="146">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="V15" s="145">
+        <v>1</v>
+      </c>
+      <c r="W15" s="145">
+        <v>1</v>
+      </c>
+      <c r="X15" s="145">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="142">
+        <f t="shared" ref="Z15" si="22">U15*Y15</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AA15" s="143" t="str">
+        <f t="shared" ref="AA15" si="23">IF(Z15&lt;3,"L",IF(AND(Z15&gt;2,Z15&lt;8),"M","H"))</f>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="25.5">
+      <c r="A16" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="149" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="137" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="149" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="139">
+        <v>3</v>
+      </c>
+      <c r="H16" s="139">
+        <v>2</v>
+      </c>
+      <c r="I16" s="139">
+        <v>1</v>
+      </c>
+      <c r="J16" s="140">
+        <f t="shared" ref="J16" si="24">IF(COUNTA(G16:I16)&gt;0,AVERAGE(G16:I16),"0")</f>
+        <v>2</v>
+      </c>
+      <c r="K16" s="139">
+        <v>2</v>
+      </c>
+      <c r="L16" s="139">
+        <v>1</v>
+      </c>
+      <c r="M16" s="139">
+        <v>2</v>
+      </c>
+      <c r="N16" s="141">
+        <f t="shared" ref="N16" si="25">IF(COUNTA(K16:M16)&gt;0,MAX(K16:M16),"0")</f>
+        <v>2</v>
+      </c>
+      <c r="O16" s="142">
+        <f t="shared" ref="O16" si="26">J16*N16</f>
+        <v>4</v>
+      </c>
+      <c r="P16" s="143" t="str">
+        <f t="shared" ref="P16" si="27">IF(O16&lt;3,"L",IF(AND(O16&gt;2,O16&lt;8),"M","H"))</f>
+        <v>M</v>
+      </c>
+      <c r="Q16" s="144" t="s">
+        <v>118</v>
+      </c>
+      <c r="R16" s="145">
+        <v>4</v>
+      </c>
+      <c r="S16" s="145">
+        <v>1</v>
+      </c>
+      <c r="T16" s="145">
+        <v>1</v>
+      </c>
+      <c r="U16" s="146">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="V16" s="145">
+        <v>1</v>
+      </c>
+      <c r="W16" s="145">
+        <v>1</v>
+      </c>
+      <c r="X16" s="145">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="142">
+        <f t="shared" ref="Z16" si="28">U16*Y16</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AA16" s="143" t="str">
+        <f t="shared" ref="AA16" si="29">IF(Z16&lt;3,"L",IF(AND(Z16&gt;2,Z16&lt;8),"M","H"))</f>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="151"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="159"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="162"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="157"/>
+      <c r="Z17" s="158"/>
+      <c r="AA17" s="159"/>
+      <c r="AB17" s="163"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="151"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="167"/>
+      <c r="P18" s="168"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="166"/>
+      <c r="S18" s="166"/>
+      <c r="T18" s="166"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="166"/>
+      <c r="W18" s="166"/>
+      <c r="X18" s="166"/>
+      <c r="Y18" s="166"/>
+      <c r="Z18" s="166"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="163"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="151"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="168"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="166"/>
+      <c r="T19" s="166"/>
+      <c r="U19" s="166"/>
+      <c r="V19" s="166"/>
+      <c r="W19" s="166"/>
+      <c r="X19" s="166"/>
+      <c r="Y19" s="166"/>
+      <c r="Z19" s="166"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="163"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="151"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="166"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
+      <c r="Y20" s="166"/>
+      <c r="Z20" s="166"/>
+      <c r="AA20" s="168"/>
+      <c r="AB20" s="163"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="166"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="168"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="166"/>
+      <c r="T21" s="166"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="166"/>
+      <c r="W21" s="166"/>
+      <c r="X21" s="166"/>
+      <c r="Y21" s="166"/>
+      <c r="Z21" s="166"/>
+      <c r="AA21" s="168"/>
+      <c r="AB21" s="163"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="166"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="168"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="166"/>
+      <c r="W22" s="166"/>
+      <c r="X22" s="166"/>
+      <c r="Y22" s="166"/>
+      <c r="Z22" s="166"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="163"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="166"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="166"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="166"/>
+      <c r="X23" s="166"/>
+      <c r="Y23" s="166"/>
+      <c r="Z23" s="166"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="163"/>
+    </row>
+    <row r="64458" spans="17:17" ht="38.25">
+      <c r="Q64458" s="51" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:AA12">
+  <autoFilter ref="A6:AA14">
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="8" showButton="0"/>
@@ -4681,6 +5338,34 @@
     <filterColumn colId="25" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:P6"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="Z7:Z9"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="Y3:AA3"/>
@@ -4689,48 +5374,20 @@
     <mergeCell ref="C2:U2"/>
     <mergeCell ref="C3:U3"/>
     <mergeCell ref="C4:U4"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:P6"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="P7:P9"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="V4:X4"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="AA7:AA9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="AA10:AA12 P10:P12">
-    <cfRule type="cellIs" dxfId="2" priority="55" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="AA10:AA17 P10:P17">
+    <cfRule type="cellIs" dxfId="5" priority="55" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="56" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="57" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tugas/Tanggal 25/6.1 HIRAC.xlsx
+++ b/Tugas/Tanggal 25/6.1 HIRAC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DWI KURNIAWAN\Magang-Undip\Tugas\Tanggal 25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLP Lab El\Magang\Tugas\Tanggal 25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="570" windowWidth="10770" windowHeight="5415" activeTab="1"/>
+    <workbookView xWindow="36" yWindow="576" windowWidth="10776" windowHeight="5412" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="K3" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="Resiko">#REF!</definedName>
     <definedName name="Sumber_Bahaya">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -1542,6 +1542,183 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1560,80 +1737,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1662,197 +1851,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1863,112 +1863,7 @@
     <cellStyle name="Normal_Identifikasi Aspek dan Dampak Lingkungan" xfId="4"/>
     <cellStyle name="Normal_Identifikasi Aspek dan Dampak Lingkungan 2" xfId="5"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -2040,7 +1935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="274675" y="0"/>
-          <a:ext cx="993612" cy="991309"/>
+          <a:ext cx="994428" cy="1005188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3637,31 +3532,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="14" customWidth="1"/>
-    <col min="6" max="9" width="14.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="14" customWidth="1"/>
+    <col min="6" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111"/>
       <c r="H1" s="57" t="s">
         <v>30</v>
       </c>
@@ -3673,11 +3568,11 @@
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="57" t="s">
         <v>31</v>
       </c>
@@ -3686,14 +3581,14 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="13.15" customHeight="1">
+    <row r="3" spans="1:10" ht="13.2" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="57" t="s">
         <v>86</v>
       </c>
@@ -3702,14 +3597,14 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="13.15" customHeight="1">
+    <row r="4" spans="1:10" ht="13.2" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="57" t="s">
         <v>28</v>
       </c>
@@ -3721,13 +3616,13 @@
     <row r="5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="57" t="s">
         <v>27</v>
       </c>
@@ -3735,14 +3630,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.5" thickBot="1">
+    <row r="6" spans="1:10" ht="13.8" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="58" t="s">
         <v>85</v>
       </c>
@@ -3767,12 +3662,12 @@
       <c r="C8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
     </row>
     <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" s="15" t="s">
@@ -3784,7 +3679,7 @@
       <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="106" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="18">
@@ -3813,7 +3708,7 @@
       <c r="C10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="79"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
@@ -3840,7 +3735,7 @@
       <c r="C11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="24">
         <v>2</v>
       </c>
@@ -3867,7 +3762,7 @@
       <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="24">
         <v>1</v>
       </c>
@@ -3900,22 +3795,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="3.75" customHeight="1">
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="15" spans="1:10" ht="31.5" customHeight="1" thickBot="1">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
     </row>
     <row r="16" spans="1:10" ht="74.25" customHeight="1" thickBot="1">
       <c r="C16" s="5"/>
@@ -3976,32 +3871,32 @@
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1"/>
     <row r="20" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
     </row>
     <row r="21" spans="1:9" ht="38.25" customHeight="1">
       <c r="A21" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="36"/>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66" t="s">
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="66"/>
+      <c r="H21" s="125"/>
     </row>
     <row r="22" spans="1:9" ht="41.25" customHeight="1">
       <c r="A22" s="37" t="s">
@@ -4010,16 +3905,16 @@
       <c r="B22" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="70" t="s">
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="70"/>
+      <c r="H22" s="129"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1">
       <c r="A23" s="39" t="s">
@@ -4028,16 +3923,16 @@
       <c r="B23" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="70" t="s">
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="70"/>
+      <c r="H23" s="129"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1">
       <c r="A24" s="41" t="s">
@@ -4046,25 +3941,19 @@
       <c r="B24" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68" t="s">
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="69"/>
+      <c r="H24" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C1:G4"/>
-    <mergeCell ref="C5:G6"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C24:F24"/>
@@ -4073,6 +3962,12 @@
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C1:G4"/>
+    <mergeCell ref="C5:G6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.32" right="0.28000000000000003" top="0.51" bottom="0.56000000000000005" header="0.5" footer="0.5"/>
@@ -4087,194 +3982,194 @@
   <dimension ref="A1:AB64458"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="43" customWidth="1"/>
     <col min="4" max="4" width="25" style="43" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="43" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="52" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="49" customWidth="1"/>
-    <col min="12" max="13" width="4.28515625" style="49" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="49" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="53" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="50" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="48" customWidth="1"/>
-    <col min="18" max="20" width="4.42578125" style="49" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" style="49" customWidth="1"/>
-    <col min="22" max="24" width="5.85546875" style="49" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" style="49" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" style="49" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" style="50" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="43"/>
+    <col min="5" max="5" width="23.44140625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="52" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="49" customWidth="1"/>
+    <col min="12" max="13" width="4.33203125" style="49" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" style="53" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="50" customWidth="1"/>
+    <col min="17" max="17" width="21.109375" style="48" customWidth="1"/>
+    <col min="18" max="20" width="4.44140625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="6.88671875" style="49" customWidth="1"/>
+    <col min="22" max="24" width="5.88671875" style="49" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" style="49" customWidth="1"/>
+    <col min="26" max="26" width="8.5546875" style="49" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" style="50" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="84" t="s">
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="128" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="96" t="s">
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
     </row>
     <row r="2" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="84" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="97" t="s">
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
     </row>
     <row r="3" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="99" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="128" t="s">
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="96" t="s">
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="159"/>
     </row>
     <row r="4" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="102" t="s">
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="128" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="96" t="s">
+      <c r="W4" s="168"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
     </row>
     <row r="5" spans="1:27" ht="51" customHeight="1">
       <c r="A5" s="44"/>
       <c r="B5" s="46"/>
       <c r="C5" s="45"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
       <c r="R5" s="64"/>
       <c r="S5" s="64"/>
       <c r="T5" s="64"/>
@@ -4287,104 +4182,104 @@
       <c r="AA5" s="63"/>
     </row>
     <row r="6" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="106" t="s">
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="117" t="s">
+      <c r="R6" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="120"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="142"/>
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="144"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A7" s="115"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="112" t="s">
+      <c r="A7" s="153"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="116" t="s">
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="110" t="s">
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="126" t="s">
+      <c r="P7" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="112" t="s">
+      <c r="Q7" s="137"/>
+      <c r="R7" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="116" t="s">
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="110" t="s">
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="134"/>
+      <c r="Z7" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" s="126" t="s">
+      <c r="AA7" s="130" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1">
-      <c r="A8" s="115"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="56" t="s">
         <v>15</v>
       </c>
@@ -4394,7 +4289,7 @@
       <c r="I8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="113" t="s">
+      <c r="J8" s="151" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="55" t="s">
@@ -4406,12 +4301,12 @@
       <c r="M8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="116" t="s">
+      <c r="N8" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="107"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="137"/>
       <c r="R8" s="56" t="s">
         <v>15</v>
       </c>
@@ -4421,7 +4316,7 @@
       <c r="T8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="112" t="s">
+      <c r="U8" s="148" t="s">
         <v>22</v>
       </c>
       <c r="V8" s="55" t="s">
@@ -4433,885 +4328,885 @@
       <c r="X8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="116" t="s">
+      <c r="Y8" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="127"/>
+      <c r="Z8" s="146"/>
+      <c r="AA8" s="131"/>
     </row>
     <row r="9" spans="1:27" ht="33" customHeight="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="131" t="s">
+      <c r="A9" s="153"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="132" t="s">
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="150" t="s">
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="131" t="s">
+      <c r="R9" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="132" t="s">
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="134"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="132"/>
     </row>
     <row r="10" spans="1:27" ht="51" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="66" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="138" t="s">
+      <c r="E10" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="147" t="s">
+      <c r="F10" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="139">
+      <c r="G10" s="69">
         <v>4</v>
       </c>
-      <c r="H10" s="139">
-        <v>1</v>
-      </c>
-      <c r="I10" s="139">
-        <v>1</v>
-      </c>
-      <c r="J10" s="140">
+      <c r="H10" s="69">
+        <v>1</v>
+      </c>
+      <c r="I10" s="69">
+        <v>1</v>
+      </c>
+      <c r="J10" s="70">
         <f t="shared" ref="J10:J13" si="0">IF(COUNTA(G10:I10)&gt;0,AVERAGE(G10:I10),"0")</f>
         <v>2</v>
       </c>
-      <c r="K10" s="139">
+      <c r="K10" s="69">
         <v>2</v>
       </c>
-      <c r="L10" s="139">
-        <v>1</v>
-      </c>
-      <c r="M10" s="139">
-        <v>1</v>
-      </c>
-      <c r="N10" s="141">
+      <c r="L10" s="69">
+        <v>1</v>
+      </c>
+      <c r="M10" s="69">
+        <v>1</v>
+      </c>
+      <c r="N10" s="71">
         <f t="shared" ref="N10:N13" si="1">IF(COUNTA(K10:M10)&gt;0,MAX(K10:M10),"0")</f>
         <v>2</v>
       </c>
-      <c r="O10" s="142">
+      <c r="O10" s="72">
         <f>J10*N10</f>
         <v>4</v>
       </c>
-      <c r="P10" s="143" t="str">
+      <c r="P10" s="73" t="str">
         <f t="shared" ref="P10:P13" si="2">IF(O10&lt;3,"L",IF(AND(O10&gt;2,O10&lt;8),"M","H"))</f>
         <v>M</v>
       </c>
-      <c r="Q10" s="144" t="s">
+      <c r="Q10" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="R10" s="145">
+      <c r="R10" s="75">
         <v>4</v>
       </c>
-      <c r="S10" s="145">
-        <v>1</v>
-      </c>
-      <c r="T10" s="145">
-        <v>1</v>
-      </c>
-      <c r="U10" s="146">
+      <c r="S10" s="75">
+        <v>1</v>
+      </c>
+      <c r="T10" s="75">
+        <v>1</v>
+      </c>
+      <c r="U10" s="76">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V10" s="145">
-        <v>1</v>
-      </c>
-      <c r="W10" s="145">
-        <v>1</v>
-      </c>
-      <c r="X10" s="145">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="141">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="142">
+      <c r="V10" s="75">
+        <v>1</v>
+      </c>
+      <c r="W10" s="75">
+        <v>1</v>
+      </c>
+      <c r="X10" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="72">
         <f t="shared" ref="Z10:Z13" si="3">U10*Y10</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AA10" s="143" t="str">
+      <c r="AA10" s="73" t="str">
         <f t="shared" ref="AA10:AA13" si="4">IF(Z10&lt;3,"L",IF(AND(Z10&gt;2,Z10&lt;8),"M","H"))</f>
         <v>L</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="51" customHeight="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="66" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="147" t="s">
+      <c r="F11" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="139">
+      <c r="G11" s="69">
         <v>4</v>
       </c>
-      <c r="H11" s="139">
-        <v>1</v>
-      </c>
-      <c r="I11" s="139">
+      <c r="H11" s="69">
+        <v>1</v>
+      </c>
+      <c r="I11" s="69">
         <v>2</v>
       </c>
-      <c r="J11" s="140">
+      <c r="J11" s="70">
         <f t="shared" ref="J11" si="5">IF(COUNTA(G11:I11)&gt;0,AVERAGE(G11:I11),"0")</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="K11" s="139">
+      <c r="K11" s="69">
         <v>2</v>
       </c>
-      <c r="L11" s="139">
+      <c r="L11" s="69">
         <v>2</v>
       </c>
-      <c r="M11" s="139">
+      <c r="M11" s="69">
         <v>3</v>
       </c>
-      <c r="N11" s="141">
+      <c r="N11" s="71">
         <f t="shared" ref="N11" si="6">IF(COUNTA(K11:M11)&gt;0,MAX(K11:M11),"0")</f>
         <v>3</v>
       </c>
-      <c r="O11" s="142">
+      <c r="O11" s="72">
         <f t="shared" ref="O11" si="7">J11*N11</f>
         <v>7</v>
       </c>
-      <c r="P11" s="143" t="str">
+      <c r="P11" s="73" t="str">
         <f t="shared" ref="P11" si="8">IF(O11&lt;3,"L",IF(AND(O11&gt;2,O11&lt;8),"M","H"))</f>
         <v>M</v>
       </c>
-      <c r="Q11" s="144" t="s">
+      <c r="Q11" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="R11" s="145">
+      <c r="R11" s="75">
         <v>4</v>
       </c>
-      <c r="S11" s="145">
-        <v>1</v>
-      </c>
-      <c r="T11" s="145">
-        <v>1</v>
-      </c>
-      <c r="U11" s="146">
+      <c r="S11" s="75">
+        <v>1</v>
+      </c>
+      <c r="T11" s="75">
+        <v>1</v>
+      </c>
+      <c r="U11" s="76">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V11" s="145">
-        <v>1</v>
-      </c>
-      <c r="W11" s="145">
-        <v>1</v>
-      </c>
-      <c r="X11" s="145">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="141">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="142">
+      <c r="V11" s="75">
+        <v>1</v>
+      </c>
+      <c r="W11" s="75">
+        <v>1</v>
+      </c>
+      <c r="X11" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="72">
         <f t="shared" ref="Z11" si="9">U11*Y11</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AA11" s="143" t="str">
+      <c r="AA11" s="73" t="str">
         <f t="shared" ref="AA11" si="10">IF(Z11&lt;3,"L",IF(AND(Z11&gt;2,Z11&lt;8),"M","H"))</f>
         <v>L</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="51" customHeight="1">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="66" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="139">
+      <c r="G12" s="69">
         <v>4</v>
       </c>
-      <c r="H12" s="139">
-        <v>1</v>
-      </c>
-      <c r="I12" s="139">
-        <v>1</v>
-      </c>
-      <c r="J12" s="140">
+      <c r="H12" s="69">
+        <v>1</v>
+      </c>
+      <c r="I12" s="69">
+        <v>1</v>
+      </c>
+      <c r="J12" s="70">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K12" s="139">
+      <c r="K12" s="69">
         <v>2</v>
       </c>
-      <c r="L12" s="139">
-        <v>1</v>
-      </c>
-      <c r="M12" s="139">
-        <v>1</v>
-      </c>
-      <c r="N12" s="141">
+      <c r="L12" s="69">
+        <v>1</v>
+      </c>
+      <c r="M12" s="69">
+        <v>1</v>
+      </c>
+      <c r="N12" s="71">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O12" s="142">
-        <f t="shared" ref="O10:O13" si="11">J12*N12</f>
+      <c r="O12" s="72">
+        <f t="shared" ref="O12:O13" si="11">J12*N12</f>
         <v>4</v>
       </c>
-      <c r="P12" s="143" t="str">
+      <c r="P12" s="73" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="Q12" s="144" t="s">
+      <c r="Q12" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R12" s="145">
+      <c r="R12" s="75">
         <v>4</v>
       </c>
-      <c r="S12" s="145">
-        <v>1</v>
-      </c>
-      <c r="T12" s="145">
+      <c r="S12" s="75">
+        <v>1</v>
+      </c>
+      <c r="T12" s="75">
         <v>2</v>
       </c>
-      <c r="U12" s="146">
+      <c r="U12" s="76">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V12" s="145">
-        <v>1</v>
-      </c>
-      <c r="W12" s="145">
-        <v>1</v>
-      </c>
-      <c r="X12" s="145">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="141">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="142">
+      <c r="V12" s="75">
+        <v>1</v>
+      </c>
+      <c r="W12" s="75">
+        <v>1</v>
+      </c>
+      <c r="X12" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="72">
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AA12" s="143" t="str">
+      <c r="AA12" s="73" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="65.099999999999994" customHeight="1">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="66" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="138" t="s">
+      <c r="E13" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="69">
         <v>4</v>
       </c>
-      <c r="H13" s="139">
+      <c r="H13" s="69">
         <v>4</v>
       </c>
-      <c r="I13" s="139">
-        <v>1</v>
-      </c>
-      <c r="J13" s="140">
+      <c r="I13" s="69">
+        <v>1</v>
+      </c>
+      <c r="J13" s="70">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K13" s="139">
+      <c r="K13" s="69">
         <v>2</v>
       </c>
-      <c r="L13" s="139">
-        <v>1</v>
-      </c>
-      <c r="M13" s="139">
+      <c r="L13" s="69">
+        <v>1</v>
+      </c>
+      <c r="M13" s="69">
         <v>2</v>
       </c>
-      <c r="N13" s="141">
+      <c r="N13" s="71">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O13" s="142">
+      <c r="O13" s="72">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="P13" s="143" t="str">
+      <c r="P13" s="73" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="Q13" s="144" t="s">
+      <c r="Q13" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="R13" s="145">
+      <c r="R13" s="75">
         <v>4</v>
       </c>
-      <c r="S13" s="145">
-        <v>1</v>
-      </c>
-      <c r="T13" s="145">
+      <c r="S13" s="75">
+        <v>1</v>
+      </c>
+      <c r="T13" s="75">
         <v>2</v>
       </c>
-      <c r="U13" s="146">
+      <c r="U13" s="76">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V13" s="145">
-        <v>1</v>
-      </c>
-      <c r="W13" s="145">
-        <v>1</v>
-      </c>
-      <c r="X13" s="145">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="141">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="142">
+      <c r="V13" s="75">
+        <v>1</v>
+      </c>
+      <c r="W13" s="75">
+        <v>1</v>
+      </c>
+      <c r="X13" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="72">
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AA13" s="143" t="str">
+      <c r="AA13" s="73" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="38.25">
-      <c r="A14" s="135" t="s">
+    <row r="14" spans="1:27" ht="39.6">
+      <c r="A14" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="78" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="138" t="s">
+      <c r="E14" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="147" t="s">
+      <c r="F14" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="139">
+      <c r="G14" s="69">
         <v>4</v>
       </c>
-      <c r="H14" s="139">
+      <c r="H14" s="69">
         <v>4</v>
       </c>
-      <c r="I14" s="139">
-        <v>1</v>
-      </c>
-      <c r="J14" s="140">
+      <c r="I14" s="69">
+        <v>1</v>
+      </c>
+      <c r="J14" s="70">
         <f t="shared" ref="J14" si="12">IF(COUNTA(G14:I14)&gt;0,AVERAGE(G14:I14),"0")</f>
         <v>3</v>
       </c>
-      <c r="K14" s="139">
+      <c r="K14" s="69">
         <v>2</v>
       </c>
-      <c r="L14" s="139">
-        <v>1</v>
-      </c>
-      <c r="M14" s="139">
+      <c r="L14" s="69">
+        <v>1</v>
+      </c>
+      <c r="M14" s="69">
         <v>2</v>
       </c>
-      <c r="N14" s="141">
+      <c r="N14" s="71">
         <f t="shared" ref="N14" si="13">IF(COUNTA(K14:M14)&gt;0,MAX(K14:M14),"0")</f>
         <v>2</v>
       </c>
-      <c r="O14" s="142">
+      <c r="O14" s="72">
         <f t="shared" ref="O14" si="14">J14*N14</f>
         <v>6</v>
       </c>
-      <c r="P14" s="143" t="str">
+      <c r="P14" s="73" t="str">
         <f t="shared" ref="P14" si="15">IF(O14&lt;3,"L",IF(AND(O14&gt;2,O14&lt;8),"M","H"))</f>
         <v>M</v>
       </c>
-      <c r="Q14" s="144" t="s">
+      <c r="Q14" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R14" s="145">
+      <c r="R14" s="75">
         <v>4</v>
       </c>
-      <c r="S14" s="145">
-        <v>1</v>
-      </c>
-      <c r="T14" s="145">
+      <c r="S14" s="75">
+        <v>1</v>
+      </c>
+      <c r="T14" s="75">
         <v>2</v>
       </c>
-      <c r="U14" s="146">
+      <c r="U14" s="76">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V14" s="145">
-        <v>1</v>
-      </c>
-      <c r="W14" s="145">
-        <v>1</v>
-      </c>
-      <c r="X14" s="145">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="141">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="142">
+      <c r="V14" s="75">
+        <v>1</v>
+      </c>
+      <c r="W14" s="75">
+        <v>1</v>
+      </c>
+      <c r="X14" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="72">
         <f t="shared" ref="Z14" si="16">U14*Y14</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AA14" s="143" t="str">
+      <c r="AA14" s="73" t="str">
         <f t="shared" ref="AA14" si="17">IF(Z14&lt;3,"L",IF(AND(Z14&gt;2,Z14&lt;8),"M","H"))</f>
         <v>L</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="51">
-      <c r="A15" s="135" t="s">
+    <row r="15" spans="1:27" ht="52.8">
+      <c r="A15" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="149" t="s">
+      <c r="D15" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="138" t="s">
+      <c r="E15" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="149" t="s">
+      <c r="F15" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="139">
+      <c r="G15" s="69">
         <v>3</v>
       </c>
-      <c r="H15" s="139">
+      <c r="H15" s="69">
         <v>4</v>
       </c>
-      <c r="I15" s="139">
-        <v>1</v>
-      </c>
-      <c r="J15" s="140">
+      <c r="I15" s="69">
+        <v>1</v>
+      </c>
+      <c r="J15" s="70">
         <f t="shared" ref="J15" si="18">IF(COUNTA(G15:I15)&gt;0,AVERAGE(G15:I15),"0")</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="K15" s="139">
+      <c r="K15" s="69">
         <v>2</v>
       </c>
-      <c r="L15" s="139">
-        <v>1</v>
-      </c>
-      <c r="M15" s="139">
+      <c r="L15" s="69">
+        <v>1</v>
+      </c>
+      <c r="M15" s="69">
         <v>2</v>
       </c>
-      <c r="N15" s="141">
+      <c r="N15" s="71">
         <f t="shared" ref="N15" si="19">IF(COUNTA(K15:M15)&gt;0,MAX(K15:M15),"0")</f>
         <v>2</v>
       </c>
-      <c r="O15" s="142">
+      <c r="O15" s="72">
         <f t="shared" ref="O15" si="20">J15*N15</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="P15" s="143" t="str">
+      <c r="P15" s="73" t="str">
         <f t="shared" ref="P15" si="21">IF(O15&lt;3,"L",IF(AND(O15&gt;2,O15&lt;8),"M","H"))</f>
         <v>M</v>
       </c>
-      <c r="Q15" s="144" t="s">
+      <c r="Q15" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="R15" s="145">
+      <c r="R15" s="75">
         <v>4</v>
       </c>
-      <c r="S15" s="145">
-        <v>1</v>
-      </c>
-      <c r="T15" s="145">
+      <c r="S15" s="75">
+        <v>1</v>
+      </c>
+      <c r="T15" s="75">
         <v>2</v>
       </c>
-      <c r="U15" s="146">
+      <c r="U15" s="76">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V15" s="145">
-        <v>1</v>
-      </c>
-      <c r="W15" s="145">
-        <v>1</v>
-      </c>
-      <c r="X15" s="145">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="141">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="142">
+      <c r="V15" s="75">
+        <v>1</v>
+      </c>
+      <c r="W15" s="75">
+        <v>1</v>
+      </c>
+      <c r="X15" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="72">
         <f t="shared" ref="Z15" si="22">U15*Y15</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AA15" s="143" t="str">
+      <c r="AA15" s="73" t="str">
         <f t="shared" ref="AA15" si="23">IF(Z15&lt;3,"L",IF(AND(Z15&gt;2,Z15&lt;8),"M","H"))</f>
         <v>L</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="25.5">
-      <c r="A16" s="135" t="s">
+    <row r="16" spans="1:27" ht="26.4">
+      <c r="A16" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="137" t="s">
+      <c r="E16" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="149" t="s">
+      <c r="F16" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="69">
         <v>3</v>
       </c>
-      <c r="H16" s="139">
+      <c r="H16" s="69">
         <v>2</v>
       </c>
-      <c r="I16" s="139">
-        <v>1</v>
-      </c>
-      <c r="J16" s="140">
+      <c r="I16" s="69">
+        <v>1</v>
+      </c>
+      <c r="J16" s="70">
         <f t="shared" ref="J16" si="24">IF(COUNTA(G16:I16)&gt;0,AVERAGE(G16:I16),"0")</f>
         <v>2</v>
       </c>
-      <c r="K16" s="139">
+      <c r="K16" s="69">
         <v>2</v>
       </c>
-      <c r="L16" s="139">
-        <v>1</v>
-      </c>
-      <c r="M16" s="139">
+      <c r="L16" s="69">
+        <v>1</v>
+      </c>
+      <c r="M16" s="69">
         <v>2</v>
       </c>
-      <c r="N16" s="141">
+      <c r="N16" s="71">
         <f t="shared" ref="N16" si="25">IF(COUNTA(K16:M16)&gt;0,MAX(K16:M16),"0")</f>
         <v>2</v>
       </c>
-      <c r="O16" s="142">
+      <c r="O16" s="72">
         <f t="shared" ref="O16" si="26">J16*N16</f>
         <v>4</v>
       </c>
-      <c r="P16" s="143" t="str">
+      <c r="P16" s="73" t="str">
         <f t="shared" ref="P16" si="27">IF(O16&lt;3,"L",IF(AND(O16&gt;2,O16&lt;8),"M","H"))</f>
         <v>M</v>
       </c>
-      <c r="Q16" s="144" t="s">
+      <c r="Q16" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="R16" s="145">
+      <c r="R16" s="75">
         <v>4</v>
       </c>
-      <c r="S16" s="145">
-        <v>1</v>
-      </c>
-      <c r="T16" s="145">
-        <v>1</v>
-      </c>
-      <c r="U16" s="146">
+      <c r="S16" s="75">
+        <v>1</v>
+      </c>
+      <c r="T16" s="75">
+        <v>1</v>
+      </c>
+      <c r="U16" s="76">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V16" s="145">
-        <v>1</v>
-      </c>
-      <c r="W16" s="145">
-        <v>1</v>
-      </c>
-      <c r="X16" s="145">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="141">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="142">
+      <c r="V16" s="75">
+        <v>1</v>
+      </c>
+      <c r="W16" s="75">
+        <v>1</v>
+      </c>
+      <c r="X16" s="75">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="72">
         <f t="shared" ref="Z16" si="28">U16*Y16</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AA16" s="143" t="str">
+      <c r="AA16" s="73" t="str">
         <f t="shared" ref="AA16" si="29">IF(Z16&lt;3,"L",IF(AND(Z16&gt;2,Z16&lt;8),"M","H"))</f>
         <v>L</v>
       </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="151"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="161"/>
-      <c r="X17" s="161"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="159"/>
-      <c r="AB17" s="163"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="93"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="151"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="167"/>
-      <c r="P18" s="168"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="163"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="93"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="151"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="168"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="166"/>
-      <c r="S19" s="166"/>
-      <c r="T19" s="166"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="166"/>
-      <c r="W19" s="166"/>
-      <c r="X19" s="166"/>
-      <c r="Y19" s="166"/>
-      <c r="Z19" s="166"/>
-      <c r="AA19" s="168"/>
-      <c r="AB19" s="163"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="93"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="151"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="167"/>
-      <c r="P20" s="168"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="166"/>
-      <c r="S20" s="166"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="166"/>
-      <c r="Y20" s="166"/>
-      <c r="Z20" s="166"/>
-      <c r="AA20" s="168"/>
-      <c r="AB20" s="163"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="93"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="166"/>
-      <c r="B21" s="164"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="167"/>
-      <c r="P21" s="168"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="166"/>
-      <c r="S21" s="166"/>
-      <c r="T21" s="166"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="166"/>
-      <c r="X21" s="166"/>
-      <c r="Y21" s="166"/>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="168"/>
-      <c r="AB21" s="163"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="93"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="166"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="167"/>
-      <c r="P22" s="168"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="166"/>
-      <c r="W22" s="166"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="166"/>
-      <c r="AA22" s="168"/>
-      <c r="AB22" s="163"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="93"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="166"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="167"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="166"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="168"/>
-      <c r="AB23" s="163"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="93"/>
     </row>
-    <row r="64458" spans="17:17" ht="38.25">
+    <row r="64458" spans="17:17" ht="26.4">
       <c r="Q64458" s="51" t="s">
         <v>78</v>
       </c>
@@ -5338,34 +5233,6 @@
     <filterColumn colId="25" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:P6"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="Y3:AA3"/>
@@ -5378,16 +5245,44 @@
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="V4:X4"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:P6"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="Z7:Z9"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AA10:AA17 P10:P17">
-    <cfRule type="cellIs" dxfId="5" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="55" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="56" stopIfTrue="1" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="57" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tugas/Tanggal 25/6.1 HIRAC.xlsx
+++ b/Tugas/Tanggal 25/6.1 HIRAC.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLP Lab El\Magang\Tugas\Tanggal 25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DWI KURNIAWAN\Magang-Undip\Tugas\Tanggal 25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36" yWindow="576" windowWidth="10776" windowHeight="5412" activeTab="1"/>
+    <workbookView xWindow="30" yWindow="570" windowWidth="10770" windowHeight="5415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="K3" sheetId="5" r:id="rId1"/>
     <sheet name="Bahaya K3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bahaya K3'!$A$6:$AA$14</definedName>
@@ -43,7 +45,7 @@
     <definedName name="Resiko">#REF!</definedName>
     <definedName name="Sumber_Bahaya">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -110,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="164">
   <si>
     <t xml:space="preserve">No.dok  </t>
   </si>
@@ -503,15 +505,135 @@
   <si>
     <t>Kerugian/Kebakaran</t>
   </si>
+  <si>
+    <t>LABORATORIUM JURUSAN TEKNIK ELEKTRO</t>
+  </si>
+  <si>
+    <t>ELAB-H-001</t>
+  </si>
+  <si>
+    <t>TINGKAT KEPARAHAN (TK)</t>
+  </si>
+  <si>
+    <t>Sangat Tinggi</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
+    <t>Sedang</t>
+  </si>
+  <si>
+    <t>Rendah</t>
+  </si>
+  <si>
+    <t>Sangat Rendah</t>
+  </si>
+  <si>
+    <t>TINGKAT KEJADIAN (TD)</t>
+  </si>
+  <si>
+    <t>PENILAIAN</t>
+  </si>
+  <si>
+    <t>KODE</t>
+  </si>
+  <si>
+    <t>Minimal</t>
+  </si>
+  <si>
+    <t>Maksimal</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>AKTIVITAS</t>
+  </si>
+  <si>
+    <t>RESIKO</t>
+  </si>
+  <si>
+    <t>PENYEBAB</t>
+  </si>
+  <si>
+    <t>DAMPAK</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>PENANGANAN RESIKO</t>
+  </si>
+  <si>
+    <t>OPPORTUNITY</t>
+  </si>
+  <si>
+    <t>Pelaksanaan Praktikum</t>
+  </si>
+  <si>
+    <t>Kerusakan Alat</t>
+  </si>
+  <si>
+    <t>Kesalahan pemakaian</t>
+  </si>
+  <si>
+    <t>Kerugian aset</t>
+  </si>
+  <si>
+    <t>Kurangnya pemeliharaan</t>
+  </si>
+  <si>
+    <t>Kurangnya kompetensi pengguna</t>
+  </si>
+  <si>
+    <t>Kecelakaan kerja</t>
+  </si>
+  <si>
+    <t>Kurangnya pengawasan K3</t>
+  </si>
+  <si>
+    <t>Cidera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehilangan Alat </t>
+  </si>
+  <si>
+    <t>Kurangnya Pengawasan praktikum</t>
+  </si>
+  <si>
+    <t>Keterbatasan personel laboran</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -667,8 +789,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,8 +871,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1339,6 +1511,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1348,7 +1546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1644,6 +1842,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,40 +1935,37 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1761,45 +1974,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1807,6 +2005,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1824,36 +2025,157 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1985,6 +2307,55 @@
         <a:xfrm>
           <a:off x="435427" y="48986"/>
           <a:ext cx="986264" cy="994302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>169901</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="350876" y="85726"/>
+          <a:ext cx="725450" cy="764030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3536,27 +3907,27 @@
       <selection activeCell="A7" sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="14" customWidth="1"/>
-    <col min="6" max="9" width="14.33203125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="14" customWidth="1"/>
+    <col min="6" max="9" width="14.28515625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="117"/>
       <c r="H1" s="57" t="s">
         <v>30</v>
       </c>
@@ -3568,11 +3939,11 @@
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="57" t="s">
         <v>31</v>
       </c>
@@ -3581,14 +3952,14 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="13.2" customHeight="1">
+    <row r="3" spans="1:10" ht="13.15" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="120"/>
       <c r="H3" s="57" t="s">
         <v>86</v>
       </c>
@@ -3597,14 +3968,14 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="13.2" customHeight="1">
+    <row r="4" spans="1:10" ht="13.15" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="123"/>
       <c r="H4" s="57" t="s">
         <v>28</v>
       </c>
@@ -3616,13 +3987,13 @@
     <row r="5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
       <c r="H5" s="57" t="s">
         <v>27</v>
       </c>
@@ -3630,14 +4001,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.8" thickBot="1">
+    <row r="6" spans="1:10" ht="13.5" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="123"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
       <c r="H6" s="58" t="s">
         <v>85</v>
       </c>
@@ -3662,12 +4033,12 @@
       <c r="C8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" s="15" t="s">
@@ -3679,7 +4050,7 @@
       <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="112" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="18">
@@ -3708,7 +4079,7 @@
       <c r="C10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="107"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
@@ -3735,7 +4106,7 @@
       <c r="C11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="24">
         <v>2</v>
       </c>
@@ -3762,7 +4133,7 @@
       <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="108"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="24">
         <v>1</v>
       </c>
@@ -3795,22 +4166,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="3.75" customHeight="1">
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
     </row>
     <row r="15" spans="1:10" ht="31.5" customHeight="1" thickBot="1">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:10" ht="74.25" customHeight="1" thickBot="1">
       <c r="C16" s="5"/>
@@ -3871,32 +4242,32 @@
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1"/>
     <row r="20" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
     </row>
     <row r="21" spans="1:9" ht="38.25" customHeight="1">
       <c r="A21" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="36"/>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="125" t="s">
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="125"/>
+      <c r="H21" s="100"/>
     </row>
     <row r="22" spans="1:9" ht="41.25" customHeight="1">
       <c r="A22" s="37" t="s">
@@ -3905,16 +4276,16 @@
       <c r="B22" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="129" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="129"/>
+      <c r="H22" s="104"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1">
       <c r="A23" s="39" t="s">
@@ -3923,16 +4294,16 @@
       <c r="B23" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="129" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="129"/>
+      <c r="H23" s="104"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1">
       <c r="A24" s="41" t="s">
@@ -3941,19 +4312,25 @@
       <c r="B24" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="127" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="128"/>
+      <c r="H24" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C1:G4"/>
+    <mergeCell ref="C5:G6"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C24:F24"/>
@@ -3962,12 +4339,6 @@
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C1:G4"/>
-    <mergeCell ref="C5:G6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.32" right="0.28000000000000003" top="0.51" bottom="0.56000000000000005" header="0.5" footer="0.5"/>
@@ -3981,195 +4352,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB64458"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="43" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="43" customWidth="1"/>
     <col min="4" max="4" width="25" style="43" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="4.5546875" style="43" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="43" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="52" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" style="49" customWidth="1"/>
-    <col min="12" max="13" width="4.33203125" style="49" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" style="49" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="53" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="50" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" style="48" customWidth="1"/>
-    <col min="18" max="20" width="4.44140625" style="49" customWidth="1"/>
-    <col min="21" max="21" width="6.88671875" style="49" customWidth="1"/>
-    <col min="22" max="24" width="5.88671875" style="49" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" style="49" customWidth="1"/>
-    <col min="26" max="26" width="8.5546875" style="49" customWidth="1"/>
-    <col min="27" max="27" width="9.88671875" style="50" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="43"/>
+    <col min="5" max="5" width="23.42578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="43" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="49" customWidth="1"/>
+    <col min="12" max="13" width="4.28515625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="53" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="50" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="48" customWidth="1"/>
+    <col min="18" max="20" width="4.42578125" style="49" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="49" customWidth="1"/>
+    <col min="22" max="24" width="5.85546875" style="49" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" style="49" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="49" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" style="50" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="149"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="112" t="s">
+      <c r="A1" s="140"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="168" t="s">
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="159" t="s">
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
     </row>
     <row r="2" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="112" t="s">
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="168" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="160" t="s">
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
     </row>
     <row r="3" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="162" t="s">
+      <c r="A3" s="140"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="168" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="159" t="s">
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
     </row>
     <row r="4" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="149"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="165" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="168" t="s">
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="159" t="s">
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
     </row>
     <row r="5" spans="1:27" ht="51" customHeight="1">
       <c r="A5" s="44"/>
       <c r="B5" s="46"/>
       <c r="C5" s="45"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
       <c r="R5" s="64"/>
       <c r="S5" s="64"/>
       <c r="T5" s="64"/>
@@ -4185,101 +4556,101 @@
       <c r="A6" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="154" t="s">
+      <c r="D6" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="141" t="s">
+      <c r="G6" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="136" t="s">
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="141" t="s">
+      <c r="R6" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="144"/>
+      <c r="S6" s="161"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="161"/>
+      <c r="V6" s="161"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="161"/>
+      <c r="Z6" s="161"/>
+      <c r="AA6" s="163"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1">
       <c r="A7" s="153"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="148" t="s">
+      <c r="B7" s="142"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
       <c r="J7" s="151"/>
-      <c r="K7" s="134" t="s">
+      <c r="K7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="145" t="s">
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="130" t="s">
+      <c r="P7" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="148" t="s">
+      <c r="Q7" s="142"/>
+      <c r="R7" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="148"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="134" t="s">
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="134"/>
-      <c r="Z7" s="145" t="s">
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" s="130" t="s">
+      <c r="AA7" s="165" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1">
       <c r="A8" s="153"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
       <c r="G8" s="56" t="s">
         <v>15</v>
       </c>
@@ -4301,12 +4672,12 @@
       <c r="M8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="134" t="s">
+      <c r="N8" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="146"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="137"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="142"/>
       <c r="R8" s="56" t="s">
         <v>15</v>
       </c>
@@ -4316,7 +4687,7 @@
       <c r="T8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="148" t="s">
+      <c r="U8" s="150" t="s">
         <v>22</v>
       </c>
       <c r="V8" s="55" t="s">
@@ -4328,50 +4699,50 @@
       <c r="X8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="134" t="s">
+      <c r="Y8" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="146"/>
-      <c r="AA8" s="131"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="166"/>
     </row>
     <row r="9" spans="1:27" ht="33" customHeight="1">
       <c r="A9" s="153"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="133" t="s">
+      <c r="B9" s="143"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
       <c r="J9" s="151"/>
-      <c r="K9" s="135" t="s">
+      <c r="K9" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="132"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="167"/>
       <c r="Q9" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="133" t="s">
+      <c r="R9" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="135" t="s">
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="134"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="132"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="167"/>
     </row>
     <row r="10" spans="1:27" ht="51" customHeight="1">
       <c r="A10" s="65" t="s">
@@ -4729,7 +5100,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="39.6">
+    <row r="14" spans="1:27" ht="38.25">
       <c r="A14" s="65" t="s">
         <v>110</v>
       </c>
@@ -4818,7 +5189,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="52.8">
+    <row r="15" spans="1:27" ht="51">
       <c r="A15" s="65" t="s">
         <v>111</v>
       </c>
@@ -4907,7 +5278,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="26.4">
+    <row r="16" spans="1:27" ht="25.5">
       <c r="A16" s="65" t="s">
         <v>112</v>
       </c>
@@ -5206,7 +5577,7 @@
       <c r="AA23" s="98"/>
       <c r="AB23" s="93"/>
     </row>
-    <row r="64458" spans="17:17" ht="26.4">
+    <row r="64458" spans="17:17" ht="25.5">
       <c r="Q64458" s="51" t="s">
         <v>78</v>
       </c>
@@ -5233,18 +5604,18 @@
     <filterColumn colId="25" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="C2:U2"/>
-    <mergeCell ref="C3:U3"/>
-    <mergeCell ref="C4:U4"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="Z7:Z9"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
@@ -5261,18 +5632,18 @@
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="P7:P9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="C2:U2"/>
+    <mergeCell ref="C3:U3"/>
+    <mergeCell ref="C4:U4"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V4:X4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AA10:AA17 P10:P17">
@@ -5293,4 +5664,638 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="170" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="172"/>
+      <c r="J1" s="173" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="4"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="177" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="177"/>
+      <c r="J2" s="178">
+        <v>44489</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="179" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="177"/>
+      <c r="J3" s="178">
+        <v>44495</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="177" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="177"/>
+      <c r="J4" s="184">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="177" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="177"/>
+      <c r="J5" s="60">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="186" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="188" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="188"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="189"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A9" s="189"/>
+      <c r="B9" s="190" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="190"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="189"/>
+      <c r="B10" s="191" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192">
+        <v>5</v>
+      </c>
+      <c r="E10" s="193">
+        <f>D10*E15</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="194">
+        <f>D10*F15</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="195">
+        <f>D10*G15</f>
+        <v>15</v>
+      </c>
+      <c r="H10" s="196">
+        <f>D10*H15</f>
+        <v>20</v>
+      </c>
+      <c r="I10" s="197">
+        <f>D10*I15</f>
+        <v>25</v>
+      </c>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="189"/>
+      <c r="B11" s="191" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="191"/>
+      <c r="D11" s="192">
+        <v>4</v>
+      </c>
+      <c r="E11" s="198">
+        <f>D11*E15</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="199">
+        <f>D11*F15</f>
+        <v>8</v>
+      </c>
+      <c r="G11" s="200">
+        <f>D11*G15</f>
+        <v>12</v>
+      </c>
+      <c r="H11" s="201">
+        <f>D11*H15</f>
+        <v>16</v>
+      </c>
+      <c r="I11" s="202">
+        <f>D11*I15</f>
+        <v>20</v>
+      </c>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="189"/>
+      <c r="B12" s="191" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="191"/>
+      <c r="D12" s="192">
+        <v>3</v>
+      </c>
+      <c r="E12" s="198">
+        <f>D12*E15</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="199">
+        <f>D12*F15</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="199">
+        <f>D12*G15</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="200">
+        <f>D12*H15</f>
+        <v>12</v>
+      </c>
+      <c r="I12" s="203">
+        <f>D12*I15</f>
+        <v>15</v>
+      </c>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="191" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="191"/>
+      <c r="D13" s="204">
+        <v>2</v>
+      </c>
+      <c r="E13" s="198">
+        <f>D13*E15</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="205">
+        <f>D13*F15</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="199">
+        <f>D13*G15</f>
+        <v>6</v>
+      </c>
+      <c r="H13" s="199">
+        <f>D13*H15</f>
+        <v>8</v>
+      </c>
+      <c r="I13" s="206">
+        <f>D13*I15</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" thickBot="1">
+      <c r="B14" s="191" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="191"/>
+      <c r="D14" s="204">
+        <v>1</v>
+      </c>
+      <c r="E14" s="207">
+        <f>D14*E15</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="208">
+        <f>D14*F15</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="208">
+        <f>D14*G15</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="208">
+        <f>D14*H15</f>
+        <v>4</v>
+      </c>
+      <c r="I14" s="209">
+        <f>D14*I15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="210"/>
+      <c r="E15" s="211">
+        <v>1</v>
+      </c>
+      <c r="F15" s="211">
+        <v>2</v>
+      </c>
+      <c r="G15" s="211">
+        <v>3</v>
+      </c>
+      <c r="H15" s="211">
+        <v>4</v>
+      </c>
+      <c r="I15" s="211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="118.5">
+      <c r="D16" s="212" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="213" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="213" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="213" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="213" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15">
+      <c r="B20" s="214" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="214"/>
+      <c r="D20" s="190" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="214" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="214"/>
+    </row>
+    <row r="21" spans="2:9" ht="15">
+      <c r="B21" s="214"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="190" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="190"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="214"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="215" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="215"/>
+      <c r="D22" s="216">
+        <v>1</v>
+      </c>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216">
+        <v>5</v>
+      </c>
+      <c r="G22" s="216"/>
+      <c r="H22" s="217" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="217"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="215" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="215"/>
+      <c r="D23" s="216">
+        <v>6</v>
+      </c>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216">
+        <v>10</v>
+      </c>
+      <c r="G23" s="216"/>
+      <c r="H23" s="218" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="218"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="215" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="215"/>
+      <c r="D24" s="216">
+        <v>11</v>
+      </c>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216">
+        <v>15</v>
+      </c>
+      <c r="G24" s="216"/>
+      <c r="H24" s="219" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="219"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="215" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="215"/>
+      <c r="D25" s="216">
+        <v>16</v>
+      </c>
+      <c r="E25" s="216"/>
+      <c r="F25" s="216">
+        <v>20</v>
+      </c>
+      <c r="G25" s="216"/>
+      <c r="H25" s="220" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="220"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="215" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="215"/>
+      <c r="D26" s="216">
+        <v>21</v>
+      </c>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216">
+        <v>25</v>
+      </c>
+      <c r="G26" s="216"/>
+      <c r="H26" s="221" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="221"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="4" spans="1:14" ht="15">
+      <c r="A4" s="222"/>
+      <c r="B4" s="222" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="222" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="222" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="222" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="222" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="222" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="222" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" s="222" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="222" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="222" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tugas/Tanggal 25/6.1 HIRAC.xlsx
+++ b/Tugas/Tanggal 25/6.1 HIRAC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="570" windowWidth="10770" windowHeight="5415" activeTab="3"/>
+    <workbookView xWindow="30" yWindow="570" windowWidth="10770" windowHeight="5415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="K3" sheetId="5" r:id="rId1"/>
@@ -1842,283 +1842,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2151,31 +1893,289 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3921,13 +3921,13 @@
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="141"/>
       <c r="H1" s="57" t="s">
         <v>30</v>
       </c>
@@ -3939,11 +3939,11 @@
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="144"/>
       <c r="H2" s="57" t="s">
         <v>31</v>
       </c>
@@ -3955,11 +3955,11 @@
     <row r="3" spans="1:10" ht="13.15" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="120"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="144"/>
       <c r="H3" s="57" t="s">
         <v>86</v>
       </c>
@@ -3971,11 +3971,11 @@
     <row r="4" spans="1:10" ht="13.15" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="123"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="57" t="s">
         <v>28</v>
       </c>
@@ -3987,13 +3987,13 @@
     <row r="5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="150"/>
       <c r="H5" s="57" t="s">
         <v>27</v>
       </c>
@@ -4004,11 +4004,11 @@
     <row r="6" spans="1:10" ht="13.5" thickBot="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153"/>
       <c r="H6" s="58" t="s">
         <v>85</v>
       </c>
@@ -4033,12 +4033,12 @@
       <c r="C8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
     </row>
     <row r="9" spans="1:10" ht="37.5" customHeight="1">
       <c r="A9" s="15" t="s">
@@ -4050,7 +4050,7 @@
       <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="136" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="18">
@@ -4079,7 +4079,7 @@
       <c r="C10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="113"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="C11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="113"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="24">
         <v>2</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="114"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="24">
         <v>1</v>
       </c>
@@ -4166,22 +4166,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="3.75" customHeight="1">
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
     </row>
     <row r="15" spans="1:10" ht="31.5" customHeight="1" thickBot="1">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
     </row>
     <row r="16" spans="1:10" ht="74.25" customHeight="1" thickBot="1">
       <c r="C16" s="5"/>
@@ -4242,32 +4242,32 @@
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1"/>
     <row r="20" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
     </row>
     <row r="21" spans="1:9" ht="38.25" customHeight="1">
       <c r="A21" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="36"/>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100" t="s">
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="100"/>
+      <c r="H21" s="155"/>
     </row>
     <row r="22" spans="1:9" ht="41.25" customHeight="1">
       <c r="A22" s="37" t="s">
@@ -4276,16 +4276,16 @@
       <c r="B22" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="104" t="s">
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="104"/>
+      <c r="H22" s="159"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1">
       <c r="A23" s="39" t="s">
@@ -4294,16 +4294,16 @@
       <c r="B23" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="104" t="s">
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="104"/>
+      <c r="H23" s="159"/>
     </row>
     <row r="24" spans="1:9" ht="39.75" customHeight="1">
       <c r="A24" s="41" t="s">
@@ -4312,25 +4312,19 @@
       <c r="B24" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102" t="s">
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="103"/>
+      <c r="H24" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E14:I15"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C1:G4"/>
-    <mergeCell ref="C5:G6"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C24:F24"/>
@@ -4339,6 +4333,12 @@
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E14:I15"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C1:G4"/>
+    <mergeCell ref="C5:G6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.32" right="0.28000000000000003" top="0.51" bottom="0.56000000000000005" header="0.5" footer="0.5"/>
@@ -4384,163 +4384,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="140"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="118" t="s">
+      <c r="A1" s="175"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="139" t="s">
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="130" t="s">
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
     </row>
     <row r="2" spans="1:27" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="118" t="s">
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="131" t="s">
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="190" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="190"/>
     </row>
     <row r="3" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="133" t="s">
+      <c r="A3" s="175"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="139" t="s">
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="193"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="194"/>
+      <c r="V3" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="130" t="s">
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="189"/>
     </row>
     <row r="4" spans="1:27" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="136" t="s">
+      <c r="A4" s="175"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="195" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="139" t="s">
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="196"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="130" t="s">
+      <c r="W4" s="198"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
+      <c r="Z4" s="189"/>
+      <c r="AA4" s="189"/>
     </row>
     <row r="5" spans="1:27" ht="51" customHeight="1">
       <c r="A5" s="44"/>
       <c r="B5" s="46"/>
       <c r="C5" s="45"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
       <c r="R5" s="64"/>
       <c r="S5" s="64"/>
       <c r="T5" s="64"/>
@@ -4553,104 +4553,104 @@
       <c r="AA5" s="63"/>
     </row>
     <row r="6" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="160" t="s">
+      <c r="G6" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="141" t="s">
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="160" t="s">
+      <c r="R6" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="161"/>
-      <c r="T6" s="161"/>
-      <c r="U6" s="161"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="161"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="163"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="169"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="170"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A7" s="153"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="150" t="s">
+      <c r="A7" s="182"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="164" t="s">
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="147" t="s">
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="165" t="s">
+      <c r="P7" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="150" t="s">
+      <c r="Q7" s="167"/>
+      <c r="R7" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="164" t="s">
+      <c r="S7" s="174"/>
+      <c r="T7" s="174"/>
+      <c r="U7" s="174"/>
+      <c r="V7" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="147" t="s">
+      <c r="W7" s="160"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="AA7" s="165" t="s">
+      <c r="AA7" s="162" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="18" customHeight="1">
-      <c r="A8" s="153"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
       <c r="G8" s="56" t="s">
         <v>15</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="I8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="151" t="s">
+      <c r="J8" s="180" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="55" t="s">
@@ -4672,12 +4672,12 @@
       <c r="M8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="164" t="s">
+      <c r="N8" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="148"/>
-      <c r="P8" s="166"/>
-      <c r="Q8" s="142"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="167"/>
       <c r="R8" s="56" t="s">
         <v>15</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="T8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="150" t="s">
+      <c r="U8" s="174" t="s">
         <v>22</v>
       </c>
       <c r="V8" s="55" t="s">
@@ -4699,50 +4699,50 @@
       <c r="X8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="164" t="s">
+      <c r="Y8" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="166"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="163"/>
     </row>
     <row r="9" spans="1:27" ht="33" customHeight="1">
-      <c r="A9" s="153"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="154" t="s">
+      <c r="A9" s="182"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="168" t="s">
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="168"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="167"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="164"/>
       <c r="Q9" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="154" t="s">
+      <c r="R9" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="168" t="s">
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="174"/>
+      <c r="V9" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="149"/>
-      <c r="AA9" s="167"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="160"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="164"/>
     </row>
     <row r="10" spans="1:27" ht="51" customHeight="1">
       <c r="A10" s="65" t="s">
@@ -5604,18 +5604,18 @@
     <filterColumn colId="25" showButton="0"/>
   </autoFilter>
   <mergeCells count="40">
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="C2:U2"/>
+    <mergeCell ref="C3:U3"/>
+    <mergeCell ref="C4:U4"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V4:X4"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
@@ -5632,18 +5632,18 @@
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="C2:U2"/>
-    <mergeCell ref="C3:U3"/>
-    <mergeCell ref="C4:U4"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="Z7:Z9"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="AA10:AA17 P10:P17">
@@ -5670,7 +5670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -5678,19 +5678,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="169"/>
-      <c r="C1" s="170" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="218" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="172" t="s">
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="172"/>
-      <c r="J1" s="173" t="s">
+      <c r="I1" s="220"/>
+      <c r="J1" s="100" t="s">
         <v>125</v>
       </c>
       <c r="K1" s="4"/>
@@ -5698,17 +5698,17 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="177" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="177"/>
-      <c r="J2" s="178">
+      <c r="I2" s="212"/>
+      <c r="J2" s="102">
         <v>44489</v>
       </c>
       <c r="K2" s="4"/>
@@ -5716,19 +5716,19 @@
     </row>
     <row r="3" spans="1:12" ht="15">
       <c r="A3" s="4"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="179" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="221" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="177" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="177"/>
-      <c r="J3" s="178">
+      <c r="I3" s="212"/>
+      <c r="J3" s="102">
         <v>44495</v>
       </c>
       <c r="K3" s="4"/>
@@ -5736,17 +5736,17 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="177" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="177"/>
-      <c r="J4" s="184">
+      <c r="I4" s="212"/>
+      <c r="J4" s="103">
         <v>0</v>
       </c>
       <c r="K4" s="4"/>
@@ -5754,16 +5754,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="177" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="177"/>
+      <c r="I5" s="212"/>
       <c r="J5" s="60">
         <v>1</v>
       </c>
@@ -5772,18 +5772,18 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="186" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188" t="s">
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="188"/>
+      <c r="I6" s="217"/>
       <c r="J6" s="59"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -5803,373 +5803,364 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="189"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A9" s="189"/>
-      <c r="B9" s="190" t="s">
+      <c r="A9" s="105"/>
+      <c r="B9" s="206" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="189"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="189"/>
-      <c r="B10" s="191" t="s">
+      <c r="A10" s="105"/>
+      <c r="B10" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192">
+      <c r="C10" s="208"/>
+      <c r="D10" s="106">
         <v>5</v>
       </c>
-      <c r="E10" s="193">
+      <c r="E10" s="107">
         <f>D10*E15</f>
         <v>5</v>
       </c>
-      <c r="F10" s="194">
+      <c r="F10" s="108">
         <f>D10*F15</f>
         <v>10</v>
       </c>
-      <c r="G10" s="195">
+      <c r="G10" s="109">
         <f>D10*G15</f>
         <v>15</v>
       </c>
-      <c r="H10" s="196">
+      <c r="H10" s="110">
         <f>D10*H15</f>
         <v>20</v>
       </c>
-      <c r="I10" s="197">
+      <c r="I10" s="111">
         <f>D10*I15</f>
         <v>25</v>
       </c>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="189"/>
-      <c r="B11" s="191" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="191"/>
-      <c r="D11" s="192">
+      <c r="C11" s="208"/>
+      <c r="D11" s="106">
         <v>4</v>
       </c>
-      <c r="E11" s="198">
+      <c r="E11" s="112">
         <f>D11*E15</f>
         <v>4</v>
       </c>
-      <c r="F11" s="199">
+      <c r="F11" s="113">
         <f>D11*F15</f>
         <v>8</v>
       </c>
-      <c r="G11" s="200">
+      <c r="G11" s="114">
         <f>D11*G15</f>
         <v>12</v>
       </c>
-      <c r="H11" s="201">
+      <c r="H11" s="115">
         <f>D11*H15</f>
         <v>16</v>
       </c>
-      <c r="I11" s="202">
+      <c r="I11" s="116">
         <f>D11*I15</f>
         <v>20</v>
       </c>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="189"/>
-      <c r="B12" s="191" t="s">
+      <c r="A12" s="105"/>
+      <c r="B12" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="192">
+      <c r="C12" s="208"/>
+      <c r="D12" s="106">
         <v>3</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="112">
         <f>D12*E15</f>
         <v>3</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="113">
         <f>D12*F15</f>
         <v>6</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="113">
         <f>D12*G15</f>
         <v>9</v>
       </c>
-      <c r="H12" s="200">
+      <c r="H12" s="114">
         <f>D12*H15</f>
         <v>12</v>
       </c>
-      <c r="I12" s="203">
+      <c r="I12" s="117">
         <f>D12*I15</f>
         <v>15</v>
       </c>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="191" t="s">
+      <c r="B13" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="191"/>
-      <c r="D13" s="204">
+      <c r="C13" s="208"/>
+      <c r="D13" s="118">
         <v>2</v>
       </c>
-      <c r="E13" s="198">
+      <c r="E13" s="112">
         <f>D13*E15</f>
         <v>2</v>
       </c>
-      <c r="F13" s="205">
+      <c r="F13" s="119">
         <f>D13*F15</f>
         <v>4</v>
       </c>
-      <c r="G13" s="199">
+      <c r="G13" s="113">
         <f>D13*G15</f>
         <v>6</v>
       </c>
-      <c r="H13" s="199">
+      <c r="H13" s="113">
         <f>D13*H15</f>
         <v>8</v>
       </c>
-      <c r="I13" s="206">
+      <c r="I13" s="120">
         <f>D13*I15</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.5" thickBot="1">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="208" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="204">
-        <v>1</v>
-      </c>
-      <c r="E14" s="207">
+      <c r="C14" s="208"/>
+      <c r="D14" s="118">
+        <v>1</v>
+      </c>
+      <c r="E14" s="121">
         <f>D14*E15</f>
         <v>1</v>
       </c>
-      <c r="F14" s="208">
+      <c r="F14" s="122">
         <f>D14*F15</f>
         <v>2</v>
       </c>
-      <c r="G14" s="208">
+      <c r="G14" s="122">
         <f>D14*G15</f>
         <v>3</v>
       </c>
-      <c r="H14" s="208">
+      <c r="H14" s="122">
         <f>D14*H15</f>
         <v>4</v>
       </c>
-      <c r="I14" s="209">
+      <c r="I14" s="123">
         <f>D14*I15</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="D15" s="210"/>
-      <c r="E15" s="211">
-        <v>1</v>
-      </c>
-      <c r="F15" s="211">
+      <c r="D15" s="124"/>
+      <c r="E15" s="125">
+        <v>1</v>
+      </c>
+      <c r="F15" s="125">
         <v>2</v>
       </c>
-      <c r="G15" s="211">
+      <c r="G15" s="125">
         <v>3</v>
       </c>
-      <c r="H15" s="211">
+      <c r="H15" s="125">
         <v>4</v>
       </c>
-      <c r="I15" s="211">
+      <c r="I15" s="125">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="118.5">
-      <c r="D16" s="212" t="s">
+      <c r="D16" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="213" t="s">
+      <c r="E16" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="213" t="s">
+      <c r="F16" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="213" t="s">
+      <c r="G16" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="213" t="s">
+      <c r="H16" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="213" t="s">
+      <c r="I16" s="127" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15">
-      <c r="B20" s="214" t="s">
+      <c r="B20" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="214"/>
-      <c r="D20" s="190" t="s">
+      <c r="C20" s="205"/>
+      <c r="D20" s="206" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="214" t="s">
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="205" t="s">
         <v>134</v>
       </c>
-      <c r="I20" s="214"/>
+      <c r="I20" s="205"/>
     </row>
     <row r="21" spans="2:9" ht="15">
-      <c r="B21" s="214"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="190" t="s">
+      <c r="B21" s="205"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="206" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190" t="s">
+      <c r="E21" s="206"/>
+      <c r="F21" s="206" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="190"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="215" t="s">
+      <c r="B22" s="199" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="215"/>
-      <c r="D22" s="216">
-        <v>1</v>
-      </c>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216">
+      <c r="C22" s="199"/>
+      <c r="D22" s="200">
+        <v>1</v>
+      </c>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200">
         <v>5</v>
       </c>
-      <c r="G22" s="216"/>
-      <c r="H22" s="217" t="s">
+      <c r="G22" s="200"/>
+      <c r="H22" s="207" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="217"/>
+      <c r="I22" s="207"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="215" t="s">
+      <c r="B23" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="215"/>
-      <c r="D23" s="216">
+      <c r="C23" s="199"/>
+      <c r="D23" s="200">
         <v>6</v>
       </c>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216">
+      <c r="E23" s="200"/>
+      <c r="F23" s="200">
         <v>10</v>
       </c>
-      <c r="G23" s="216"/>
-      <c r="H23" s="218" t="s">
+      <c r="G23" s="200"/>
+      <c r="H23" s="203" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="218"/>
+      <c r="I23" s="203"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="215" t="s">
+      <c r="B24" s="199" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="216">
+      <c r="C24" s="199"/>
+      <c r="D24" s="200">
         <v>11</v>
       </c>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216">
+      <c r="E24" s="200"/>
+      <c r="F24" s="200">
         <v>15</v>
       </c>
-      <c r="G24" s="216"/>
-      <c r="H24" s="219" t="s">
+      <c r="G24" s="200"/>
+      <c r="H24" s="204" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="219"/>
+      <c r="I24" s="204"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="215" t="s">
+      <c r="B25" s="199" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="215"/>
-      <c r="D25" s="216">
+      <c r="C25" s="199"/>
+      <c r="D25" s="200">
         <v>16</v>
       </c>
-      <c r="E25" s="216"/>
-      <c r="F25" s="216">
+      <c r="E25" s="200"/>
+      <c r="F25" s="200">
         <v>20</v>
       </c>
-      <c r="G25" s="216"/>
-      <c r="H25" s="220" t="s">
+      <c r="G25" s="200"/>
+      <c r="H25" s="201" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="220"/>
+      <c r="I25" s="201"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="215" t="s">
+      <c r="B26" s="199" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="215"/>
-      <c r="D26" s="216">
+      <c r="C26" s="199"/>
+      <c r="D26" s="200">
         <v>21</v>
       </c>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216">
+      <c r="E26" s="200"/>
+      <c r="F26" s="200">
         <v>25</v>
       </c>
-      <c r="G26" s="216"/>
-      <c r="H26" s="221" t="s">
+      <c r="G26" s="200"/>
+      <c r="H26" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="221"/>
+      <c r="I26" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
@@ -6180,18 +6171,27 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6202,47 +6202,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="1:14" ht="15">
-      <c r="A4" s="222"/>
-      <c r="B4" s="222" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="222" t="s">
+      <c r="D4" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="222" t="s">
+      <c r="E4" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="222" t="s">
+      <c r="F4" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="222" t="s">
+      <c r="G4" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="222" t="s">
+      <c r="H4" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="I4" s="222" t="s">
+      <c r="I4" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="222" t="s">
+      <c r="J4" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="222" t="s">
+      <c r="K4" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" t="s">
